--- a/app/Licenciatura_em_Ciencias_do_Desporto.xlsx
+++ b/app/Licenciatura_em_Ciencias_do_Desporto.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -194,9 +194,6 @@
     <t xml:space="preserve">Gloria Antonio Ringue </t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Sifa Canivete Victor</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100503772Q</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>Madalena Amizade</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100753085P</t>
   </si>
   <si>
@@ -362,9 +353,6 @@
     <t>Lucia Cobre</t>
   </si>
   <si>
-    <t>Distrito de Morrumbene</t>
-  </si>
-  <si>
     <t>081100346584B</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>Isabel Mateus Zamba</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500196083N</t>
   </si>
   <si>
@@ -413,9 +398,6 @@
     <t>Carlota Goenha</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>10020781828A</t>
   </si>
   <si>
@@ -437,9 +419,6 @@
     <t>Velacia Niquisse</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110502737907C</t>
   </si>
   <si>
@@ -461,9 +440,6 @@
     <t>Felizarda Abilio Tamele</t>
   </si>
   <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
     <t>110700423744A</t>
   </si>
   <si>
@@ -485,9 +461,6 @@
     <t>LÚcia Rufina Messanhane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110400158118S</t>
   </si>
   <si>
@@ -581,9 +554,6 @@
     <t>Vitoria Saela Gujamo</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080100875978Q</t>
   </si>
   <si>
@@ -672,9 +642,6 @@
   </si>
   <si>
     <t>Isaura Jacob Hobjana</t>
-  </si>
-  <si>
-    <t>Distrito de Manhiça</t>
   </si>
   <si>
     <t>110302094432A</t>
@@ -2078,7 +2045,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2094,7 +2061,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2110,7 +2077,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2126,7 +2093,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2142,7 +2109,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2157,9 +2124,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2167,7 +2132,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2178,7 +2143,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2187,7 +2152,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2199,7 +2164,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2207,7 +2172,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2303,7 +2268,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2346,7 +2311,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2673,7 +2638,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2689,7 +2654,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2705,7 +2670,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2721,7 +2686,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2737,7 +2702,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2752,9 +2717,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2762,7 +2725,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2773,7 +2736,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2782,7 +2745,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2794,7 +2757,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2802,7 +2765,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2898,7 +2861,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2941,7 +2904,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3268,7 +3231,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3284,7 +3247,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3300,7 +3263,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3316,7 +3279,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3332,7 +3295,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3347,9 +3310,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3357,7 +3318,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3368,7 +3329,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3377,7 +3338,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3389,7 +3350,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3397,7 +3358,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3493,7 +3454,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3536,7 +3497,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3863,7 +3824,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3879,7 +3840,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3895,7 +3856,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3911,7 +3872,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3927,7 +3888,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3942,9 +3903,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3952,7 +3911,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3963,7 +3922,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3972,7 +3931,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3984,7 +3943,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3992,7 +3951,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4088,7 +4047,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4131,7 +4090,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4458,7 +4417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4474,7 +4433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4490,7 +4449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4506,7 +4465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4522,7 +4481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4537,9 +4496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4547,7 +4504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4558,7 +4515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4567,7 +4524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4579,7 +4536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4587,7 +4544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4683,7 +4640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4726,7 +4683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5053,7 +5010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5069,7 +5026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5085,7 +5042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5101,7 +5058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5117,7 +5074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5132,9 +5089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5142,7 +5097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5153,7 +5108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5162,7 +5117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5174,7 +5129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5182,7 +5137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5278,7 +5233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5321,7 +5276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5648,7 +5603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5664,7 +5619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5680,7 +5635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5696,7 +5651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5712,7 +5667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5727,9 +5682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5737,7 +5690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5748,7 +5701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5757,7 +5710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5769,7 +5722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5777,7 +5730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5873,7 +5826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5916,7 +5869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6243,7 +6196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6259,7 +6212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6275,7 +6228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6291,7 +6244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6307,7 +6260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6322,9 +6275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6332,7 +6283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6343,7 +6294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6352,7 +6303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6364,7 +6315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6372,7 +6323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6468,7 +6419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6511,7 +6462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6838,7 +6789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6854,7 +6805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6870,7 +6821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6886,7 +6837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6902,7 +6853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6917,9 +6868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6927,7 +6876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6938,7 +6887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6947,7 +6896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6959,7 +6908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6967,7 +6916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7063,7 +7012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7106,7 +7055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7433,7 +7382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7449,7 +7398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7465,7 +7414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7481,7 +7430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7497,7 +7446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7512,9 +7461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7522,7 +7469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7533,7 +7480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7542,7 +7489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7554,7 +7501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7562,7 +7509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7658,7 +7605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7701,7 +7648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8107,9 +8054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8117,7 +8062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8128,7 +8073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8137,7 +8082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8149,7 +8094,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8157,7 +8102,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8253,7 +8198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8296,7 +8241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8623,7 +8568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8639,7 +8584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8655,7 +8600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8671,7 +8616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8687,7 +8632,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8702,9 +8647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8712,7 +8655,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8723,7 +8666,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8732,7 +8675,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8744,7 +8687,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8752,7 +8695,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8848,7 +8791,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8891,7 +8834,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9218,7 +9161,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9234,7 +9177,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9250,7 +9193,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9266,7 +9209,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9282,7 +9225,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9297,9 +9240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9307,7 +9248,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9318,7 +9259,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9327,7 +9268,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9339,7 +9280,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9347,7 +9288,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9443,7 +9384,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9486,7 +9427,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9813,7 +9754,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9829,7 +9770,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9845,7 +9786,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9861,7 +9802,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9877,7 +9818,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9892,9 +9833,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9902,7 +9841,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9913,7 +9852,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9922,7 +9861,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9934,7 +9873,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9942,7 +9881,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10038,7 +9977,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10081,7 +10020,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10408,7 +10347,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10424,7 +10363,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10440,7 +10379,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10456,7 +10395,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10472,7 +10411,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10487,9 +10426,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10497,7 +10434,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10508,7 +10445,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10517,7 +10454,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10529,7 +10466,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10537,7 +10474,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10633,7 +10570,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10676,7 +10613,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11003,7 +10940,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11019,7 +10956,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11035,7 +10972,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11051,7 +10988,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11067,7 +11004,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11082,9 +11019,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11092,7 +11027,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11103,7 +11038,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11112,7 +11047,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11124,7 +11059,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11132,7 +11067,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11228,7 +11163,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11271,7 +11206,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11598,7 +11533,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11614,7 +11549,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11805,7 +11740,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12171,7 +12106,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12187,7 +12122,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12203,7 +12138,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12219,7 +12154,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12235,7 +12170,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12250,9 +12185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12260,7 +12193,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12271,7 +12204,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12280,7 +12213,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12292,7 +12225,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12300,7 +12233,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12396,7 +12329,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12439,7 +12372,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12766,7 +12699,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12782,7 +12715,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12798,7 +12731,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12814,7 +12747,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12830,7 +12763,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12845,9 +12778,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12855,7 +12786,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12866,7 +12797,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12875,7 +12806,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12887,7 +12818,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12895,7 +12826,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12991,7 +12922,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13034,7 +12965,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13361,7 +13292,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13377,7 +13308,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13393,7 +13324,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13409,7 +13340,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13425,7 +13356,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13440,9 +13371,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13450,7 +13379,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13461,7 +13390,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13470,7 +13399,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13482,7 +13411,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13490,7 +13419,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13586,7 +13515,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13629,7 +13558,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13984,7 +13913,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14000,7 +13929,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14016,7 +13945,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14032,7 +13961,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14048,7 +13977,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14063,9 +13992,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14073,7 +14000,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14084,7 +14011,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14093,7 +14020,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14105,7 +14032,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14113,7 +14040,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14209,7 +14136,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14252,7 +14179,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14607,7 +14534,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14623,7 +14550,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14639,7 +14566,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14655,7 +14582,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14671,7 +14598,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14686,9 +14613,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14696,7 +14621,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14707,7 +14632,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14716,7 +14641,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14728,7 +14653,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14736,7 +14661,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14832,7 +14757,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14875,7 +14800,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15202,7 +15127,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15218,7 +15143,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15234,7 +15159,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15250,7 +15175,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15266,7 +15191,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15281,9 +15206,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15291,7 +15214,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15302,7 +15225,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15311,7 +15234,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15323,7 +15246,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15331,7 +15254,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15427,7 +15350,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15470,7 +15393,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15797,7 +15720,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15813,7 +15736,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15829,7 +15752,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15845,7 +15768,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15861,7 +15784,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15876,9 +15799,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15886,7 +15807,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15897,7 +15818,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15906,7 +15827,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15918,7 +15839,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16022,7 +15943,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16065,7 +15986,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16392,7 +16313,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16408,7 +16329,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16424,7 +16345,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16440,7 +16361,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16456,7 +16377,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16471,9 +16392,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16481,7 +16400,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16492,7 +16411,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16501,7 +16420,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16513,7 +16432,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16521,7 +16440,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16617,7 +16536,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16660,7 +16579,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16987,7 +16906,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17003,7 +16922,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17019,7 +16938,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17035,7 +16954,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17051,7 +16970,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17066,9 +16985,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17076,7 +16993,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17087,7 +17004,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17096,7 +17013,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17108,7 +17025,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17116,7 +17033,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17212,7 +17129,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17255,7 +17172,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17582,7 +17499,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17598,7 +17515,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17614,7 +17531,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17630,7 +17547,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17646,7 +17563,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17661,9 +17578,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17671,7 +17586,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17682,7 +17597,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17691,7 +17606,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17703,7 +17618,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17711,7 +17626,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17807,7 +17722,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17850,7 +17765,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
